--- a/data/trans_camb/P57_AC_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P57_AC_R-Provincia-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>dukeCdic</t>
+          <t>Población con apoyo confidencial bajo (Duke)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P57_AC_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P57_AC_R-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P57_AC_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P57_AC_R-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-27,24</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,59</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-30,74</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-28,83</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-4,51; 8,1</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-35,92; -19,85</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-12,57; -0,55</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-36,74; -24,91</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,68; 2,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,78; -23,82</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>2,14%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-33,95%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-7,33%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-34,21%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,74%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,94%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-5,52; 10,92</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-43,38; -25,75</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-13,76; -0,64</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-39,96; -28,39</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,73; 2,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,12; -28,81</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,49</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,3</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,89</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,36</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,96</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,31</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,79</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,19</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,79; 2,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,2; 27,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,55; 11,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,28; -2,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,27; 20,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,51; -3,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,59; -1,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,5; 21,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,06; 2,24</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,3%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,46%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,51%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,98; 4,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,32; 50,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,14; 20,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,08; -3,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,5; 33,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,08; -4,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,38; -3,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,08; 35,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,93; 3,63</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,21</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,51</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,61</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,91</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,17</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,82</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,74</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,12</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,56; 10,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,5; 16,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,86; -8,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,86; 23,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,42; 31,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,46; 2,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,56; 14,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,53; 21,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,47; -6,24</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,62%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,16%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,98%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,83%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,53%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,18%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,71%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,13; 18,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,66; 29,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,94; -14,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,93; 44,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,48; 59,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,86; 3,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,31; 26,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,53; 38,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,34; -11,16</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,96</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-25,12</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-38,26</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,93</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-35,08</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,73</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,91</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-36,55</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,57; -3,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,84; -17,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,02; -30,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,82; 6,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,5; -7,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,19; -28,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,19; -0,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,77; -14,8</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,84; -31,04</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,33%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,81%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,47%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,46%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,72%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,32%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,99%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,96; -5,49</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,4; -25,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,94; -44,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,72; 9,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,97; -11,63</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,37; -42,04</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,27; -0,24</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,52; -21,5</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,1; -45,66</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-25,96</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,14</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,45</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,06</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,09</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,55</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,86; -16,96</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,28; 14,83</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,65; 19,98</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,73; -6,61</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,41; 8,16</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,55; 12,01</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,19; -14,42</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,7; 9,12</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,09; 14,31</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,73%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,57%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,76%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,27%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,54%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,36; -22,61</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,11; 20,27</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,81; 27,08</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,71; -8,24</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,03; 10,03</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,71; 14,67</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,79; -17,98</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 11,43</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,89; 18,16</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,05</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,03</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-30,44</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-34,07</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,63</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-32,28</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,1; 0,56</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,27; 15,36</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,32; -23,12</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,18; 9,45</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,97; 11,05</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,96; -27,24</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,0; 2,98</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,69; 11,3</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,44; -26,87</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,6%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,58%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,87%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,29%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,73%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,13%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,21; 0,82</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,39; 23,89</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,7; -35,17</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,8; 13,53</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,1; 15,6</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,44; -38,89</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,83; 4,3</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,95; 16,39</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,61; -38,95</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,59</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>29,68</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,24</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>36,47</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,95</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,08</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>33,14</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,66</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,84; 13,44</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,34; 34,78</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,25; 15,2</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,38; 25,96</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,95; 41,52</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,53; 19,56</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,78; 17,87</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,85; 36,55</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,34; 15,92</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,49%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,64%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,63%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,39%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,36%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,45%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,78%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,38%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,99%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,44; 27,19</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,99; 70,82</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,85; 30,8</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,46; 56,79</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>61,11; 92,03</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,69; 42,75</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,06; 37,11</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>56,69; 76,77</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,07; 32,6</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,39</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,25</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,19</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,66</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,62; 12,89</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,48; 15,2</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,18; 6,29</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 6,01</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,05; 10,14</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,24; 4,79</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,4; 8,22</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,2; 11,81</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,41; 3,84</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,74%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,31%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,64%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,6%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,26%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,8; 16,62</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,32; 19,63</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,19; 8,0</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,97; 7,12</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,64; 12,18</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,55; 5,68</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,0; 10,02</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,5; 14,38</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,18; 4,64</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,07</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,47</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,36</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,46</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,23</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,95</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,83; 0,86</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,16; 13,3</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,03; -3,76</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 4,84</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,25; 13,3</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,68; -5,44</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,09; 2,15</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,83; 12,8</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,07; -5,16</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,4%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,28%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,51%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,07%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,55%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,18%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,02%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,53; 1,31</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,23; 20,02</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,6; -5,61</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,43; 6,98</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,77; 19,14</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,58; -7,85</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,55; 3,13</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,05; 18,72</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,95; -7,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57_AC_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P57_AC_R-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-7,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-27,24</t>
+          <t>-27,69</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-8,21</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-30,74</t>
+          <t>-30,78</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-7,62</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-28,83</t>
+          <t>-29,25</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,03; -0,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-35,92; -19,85</t>
+          <t>-36,99; -19,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,05; -1,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-36,74; -24,91</t>
+          <t>-36,78; -24,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,18; -2,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-33,78; -23,82</t>
+          <t>-34,56; -24,16</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,91%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-33,95%</t>
+          <t>-34,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,14%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-34,21%</t>
+          <t>-34,26%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-33,94%</t>
+          <t>-34,44%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,18; -0,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-43,38; -25,75</t>
+          <t>-44,83; -25,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,38; -2,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,96; -28,39</t>
+          <t>-40,04; -28,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,14; -3,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-39,12; -28,81</t>
+          <t>-40,23; -29,14</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-8,96</t>
+          <t>-8,98</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>-2,2</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 11,71</t>
+          <t>-2,91; 11,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,51; -3,13</t>
+          <t>-14,45; -3,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 2,24</t>
+          <t>-7,28; 2,34</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-13,52%</t>
+          <t>-13,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-3,51%</t>
+          <t>-3,53%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 20,95</t>
+          <t>-4,76; 20,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,08; -4,95</t>
+          <t>-21,02; -4,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 3,63</t>
+          <t>-11,2; 3,85</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-16,51</t>
+          <t>-17,01</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,17</t>
+          <t>-6,29</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-11,12</t>
+          <t>-11,49</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-23,86; -8,21</t>
+          <t>-24,44; -8,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 2,02</t>
+          <t>-12,63; 2,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-16,47; -6,24</t>
+          <t>-16,9; -6,71</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-26,62%</t>
+          <t>-27,44%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-10,83%</t>
+          <t>-11,04%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-18,71%</t>
+          <t>-19,34%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-35,94; -14,23</t>
+          <t>-36,72; -14,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,86; 3,79</t>
+          <t>-21,01; 3,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-26,34; -11,16</t>
+          <t>-27,03; -11,85</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-9,96</t>
+          <t>-19,31</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-38,26</t>
+          <t>-38,89</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>-8,15</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-35,08</t>
+          <t>-40,9</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-4,73</t>
+          <t>-13,62</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-36,55</t>
+          <t>-40,25</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-16,57; -3,71</t>
+          <t>-26,65; -12,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-46,02; -30,42</t>
+          <t>-46,99; -31,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 6,47</t>
+          <t>-15,41; -1,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-42,19; -28,3</t>
+          <t>-53,51; -32,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-9,19; -0,22</t>
+          <t>-19,16; -8,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-41,84; -31,04</t>
+          <t>-48,66; -33,27</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-14,0%</t>
+          <t>-27,15%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-53,81%</t>
+          <t>-54,69%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>-11,73%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-50,46%</t>
+          <t>-58,83%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-6,72%</t>
+          <t>-19,37%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-51,99%</t>
+          <t>-57,24%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,96; -5,49</t>
+          <t>-36,13; -17,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-61,94; -44,35</t>
+          <t>-63,37; -44,84</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 9,75</t>
+          <t>-21,09; -2,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-58,37; -42,04</t>
+          <t>-74,95; -48,04</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-12,27; -0,24</t>
+          <t>-26,15; -12,43</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-58,1; -45,66</t>
+          <t>-68,8; -49,08</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>13,14</t>
+          <t>13,15</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>6,06</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>9,55</t>
+          <t>9,63</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,65; 19,98</t>
+          <t>5,79; 20,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,55; 12,01</t>
+          <t>0,86; 12,05</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,09; 14,31</t>
+          <t>5,17; 14,4</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>11,64%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>6,81; 27,08</t>
+          <t>6,84; 27,1</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,71; 14,67</t>
+          <t>0,93; 14,68</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>5,89; 18,16</t>
+          <t>6,1; 18,25</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-30,44</t>
+          <t>-30,7</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-34,07</t>
+          <t>-34,03</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-32,28</t>
+          <t>-32,4</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-38,32; -23,12</t>
+          <t>-38,75; -23,51</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-40,96; -27,24</t>
+          <t>-40,95; -27,25</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-37,44; -26,87</t>
+          <t>-37,56; -26,96</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-43,87%</t>
+          <t>-44,24%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-46,29%</t>
+          <t>-46,24%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-45,13%</t>
+          <t>-45,3%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-52,7; -35,17</t>
+          <t>-53,1; -35,55</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-53,44; -38,89</t>
+          <t>-53,32; -38,77</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-50,61; -38,95</t>
+          <t>-50,77; -39,01</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>9,24</t>
+          <t>8,89</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>13,95</t>
+          <t>13,97</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>11,66</t>
+          <t>11,47</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3,25; 15,2</t>
+          <t>2,83; 15,13</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>8,53; 19,56</t>
+          <t>8,45; 19,46</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>7,34; 15,92</t>
+          <t>7,09; 15,81</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>16,96%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>28,45%</t>
+          <t>28,49%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>22,99%</t>
+          <t>22,63%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>5,85; 30,8</t>
+          <t>4,96; 30,03</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>16,69; 42,75</t>
+          <t>16,59; 42,66</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>14,07; 32,6</t>
+          <t>13,48; 32,27</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-17,76</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-10,03</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-17,18; 6,29</t>
+          <t>-50,86; 5,95</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 4,79</t>
+          <t>-2,22; 4,75</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 3,84</t>
+          <t>-38,2; 3,61</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-0,64%</t>
+          <t>-22,19%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>-12,06%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-21,19; 8,0</t>
+          <t>-62,99; 7,7</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 5,68</t>
+          <t>-2,57; 5,61</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-11,18; 4,64</t>
+          <t>-45,72; 4,39</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-6,47</t>
+          <t>-11,15</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-7,46</t>
+          <t>-9,66</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>-6,95</t>
+          <t>-10,43</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-10,03; -3,76</t>
+          <t>-25,18; -5,87</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-9,68; -5,44</t>
+          <t>-14,12; -7,2</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-9,07; -5,16</t>
+          <t>-18,0; -7,47</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-9,51%</t>
+          <t>-16,4%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-10,55%</t>
+          <t>-13,66%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>-10,02%</t>
+          <t>-15,04%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-14,6; -5,61</t>
+          <t>-37,14; -8,7</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-13,58; -7,85</t>
+          <t>-19,91; -10,29</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-12,95; -7,52</t>
+          <t>-25,95; -10,86</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57_AC_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P57_AC_R-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,03; -0,05</t>
+          <t>-13,92; 0,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 8,1</t>
+          <t>-4,55; 8,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-36,99; -19,91</t>
+          <t>-36,25; -19,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,05; -1,86</t>
+          <t>-13,96; -1,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,57; -0,55</t>
+          <t>-12,41; -1,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-36,78; -24,79</t>
+          <t>-36,57; -24,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,18; -2,97</t>
+          <t>-12,68; -2,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 2,21</t>
+          <t>-7,17; 1,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-34,56; -24,16</t>
+          <t>-34,79; -24,05</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,18; -0,02</t>
+          <t>-16,82; 0,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 10,92</t>
+          <t>-5,53; 11,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-44,83; -25,46</t>
+          <t>-44,32; -24,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,38; -2,18</t>
+          <t>-15,35; -2,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,76; -0,64</t>
+          <t>-13,58; -1,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,04; -28,35</t>
+          <t>-39,66; -27,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,14; -3,72</t>
+          <t>-14,8; -3,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 2,67</t>
+          <t>-8,27; 2,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-40,23; -29,14</t>
+          <t>-40,27; -28,95</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 2,31</t>
+          <t>-9,9; 3,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,2; 27,12</t>
+          <t>15,85; 27,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 11,61</t>
+          <t>-1,66; 12,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,28; -2,42</t>
+          <t>-14,88; -2,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,27; 20,52</t>
+          <t>9,01; 19,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,45; -3,07</t>
+          <t>-14,78; -3,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,59; -1,99</t>
+          <t>-10,79; -1,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,5; 21,37</t>
+          <t>13,63; 21,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 2,34</t>
+          <t>-7,34; 1,86</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,98; 4,08</t>
+          <t>-16,19; 5,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,32; 50,03</t>
+          <t>25,6; 49,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 20,89</t>
+          <t>-2,71; 21,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,08; -3,94</t>
+          <t>-21,82; -4,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,5; 33,1</t>
+          <t>12,94; 30,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,02; -4,93</t>
+          <t>-21,59; -5,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,38; -3,14</t>
+          <t>-16,84; -2,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,08; 35,69</t>
+          <t>20,84; 35,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-11,2; 3,85</t>
+          <t>-11,02; 3,04</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 10,49</t>
+          <t>-5,44; 9,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,5; 16,76</t>
+          <t>1,93; 16,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-24,44; -8,74</t>
+          <t>-24,61; -9,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,86; 23,8</t>
+          <t>9,71; 24,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,42; 31,06</t>
+          <t>16,72; 31,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 2,0</t>
+          <t>-13,03; 1,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,56; 14,93</t>
+          <t>4,22; 14,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,53; 21,67</t>
+          <t>11,39; 21,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-16,9; -6,71</t>
+          <t>-16,63; -6,05</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 18,21</t>
+          <t>-8,23; 17,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,66; 29,34</t>
+          <t>2,99; 28,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-36,72; -14,84</t>
+          <t>-38,23; -15,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,93; 44,93</t>
+          <t>16,05; 45,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,48; 59,46</t>
+          <t>27,66; 60,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,01; 3,82</t>
+          <t>-21,46; 2,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,31; 26,23</t>
+          <t>6,69; 26,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>18,53; 38,31</t>
+          <t>18,12; 38,49</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-27,03; -11,85</t>
+          <t>-26,64; -10,68</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-26,65; -12,09</t>
+          <t>-26,77; -12,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-31,84; -17,78</t>
+          <t>-32,03; -18,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-46,99; -31,07</t>
+          <t>-46,29; -29,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-15,41; -1,89</t>
+          <t>-15,2; -1,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-21,5; -7,79</t>
+          <t>-22,18; -8,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-53,51; -32,36</t>
+          <t>-54,25; -31,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-19,16; -8,48</t>
+          <t>-18,66; -8,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-24,77; -14,8</t>
+          <t>-25,28; -15,13</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-48,66; -33,27</t>
+          <t>-48,7; -33,75</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-36,13; -17,58</t>
+          <t>-36,4; -17,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-43,4; -25,88</t>
+          <t>-43,16; -26,75</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-63,37; -44,84</t>
+          <t>-64,4; -44,22</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,09; -2,82</t>
+          <t>-21,19; -1,56</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,97; -11,63</t>
+          <t>-30,21; -12,08</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-74,95; -48,04</t>
+          <t>-75,16; -46,91</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-26,15; -12,43</t>
+          <t>-25,65; -13,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-34,52; -21,5</t>
+          <t>-34,54; -21,72</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-68,8; -49,08</t>
+          <t>-69,28; -49,17</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-34,86; -16,96</t>
+          <t>-34,52; -15,41</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 14,83</t>
+          <t>0,06; 15,02</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,79; 20,12</t>
+          <t>6,71; 20,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-22,73; -6,61</t>
+          <t>-21,79; -6,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 8,16</t>
+          <t>-4,94; 7,87</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,86; 12,05</t>
+          <t>1,19; 12,17</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-26,19; -14,42</t>
+          <t>-26,28; -14,26</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 9,12</t>
+          <t>-1,03; 8,78</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,17; 14,4</t>
+          <t>5,4; 14,0</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-42,36; -22,61</t>
+          <t>-42,12; -20,83</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 20,27</t>
+          <t>0,16; 20,52</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>6,84; 27,1</t>
+          <t>8,21; 27,78</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-25,71; -8,24</t>
+          <t>-24,92; -8,4</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 10,03</t>
+          <t>-5,53; 9,7</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,93; 14,68</t>
+          <t>1,3; 14,93</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-30,79; -17,98</t>
+          <t>-30,94; -17,65</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 11,43</t>
+          <t>-1,13; 10,96</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>6,1; 18,25</t>
+          <t>6,46; 17,65</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-16,1; 0,56</t>
+          <t>-16,45; 0,24</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,27; 15,36</t>
+          <t>0,28; 16,05</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-38,75; -23,51</t>
+          <t>-37,71; -22,1</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 9,45</t>
+          <t>-4,84; 9,95</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 11,05</t>
+          <t>-3,96; 11,36</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-40,95; -27,25</t>
+          <t>-40,48; -27,36</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 2,98</t>
+          <t>-8,28; 3,14</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,69; 11,3</t>
+          <t>0,66; 11,2</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-37,56; -26,96</t>
+          <t>-37,21; -27,02</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-22,21; 0,82</t>
+          <t>-22,37; 0,36</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>0,39; 23,89</t>
+          <t>0,48; 24,65</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-53,1; -35,55</t>
+          <t>-52,22; -34,52</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 13,53</t>
+          <t>-6,23; 14,06</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 15,6</t>
+          <t>-5,19; 16,36</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-53,32; -38,77</t>
+          <t>-52,76; -38,95</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 4,3</t>
+          <t>-11,16; 4,67</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>0,95; 16,39</t>
+          <t>0,87; 16,45</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-50,77; -39,01</t>
+          <t>-50,79; -39,2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,84; 13,44</t>
+          <t>2,15; 13,51</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>24,34; 34,78</t>
+          <t>24,25; 34,78</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,83; 15,13</t>
+          <t>3,06; 15,71</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>15,38; 25,96</t>
+          <t>14,8; 25,32</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>31,95; 41,52</t>
+          <t>31,53; 41,19</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>8,45; 19,46</t>
+          <t>8,54; 18,98</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>9,78; 17,87</t>
+          <t>9,76; 18,08</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>29,85; 36,55</t>
+          <t>29,34; 36,85</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>7,09; 15,81</t>
+          <t>7,07; 15,41</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>3,44; 27,19</t>
+          <t>4,03; 27,62</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>43,99; 70,82</t>
+          <t>43,44; 71,33</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>4,96; 30,03</t>
+          <t>5,75; 31,9</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>29,46; 56,79</t>
+          <t>28,32; 54,99</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>61,11; 92,03</t>
+          <t>59,4; 89,76</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>16,59; 42,66</t>
+          <t>16,13; 41,02</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>19,06; 37,11</t>
+          <t>18,66; 37,34</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>56,69; 76,77</t>
+          <t>54,95; 77,08</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>13,48; 32,27</t>
+          <t>13,32; 31,92</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>5,62; 12,89</t>
+          <t>5,68; 13,5</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>8,48; 15,2</t>
+          <t>8,58; 15,41</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-50,86; 5,95</t>
+          <t>-53,5; 5,88</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 6,01</t>
+          <t>-1,15; 5,46</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>4,05; 10,14</t>
+          <t>4,25; 10,27</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 4,75</t>
+          <t>-2,51; 4,31</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>3,4; 8,22</t>
+          <t>3,27; 8,36</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>7,2; 11,81</t>
+          <t>7,46; 12,28</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-38,2; 3,61</t>
+          <t>-38,3; 3,7</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>6,8; 16,62</t>
+          <t>6,94; 17,41</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>10,32; 19,63</t>
+          <t>10,43; 19,83</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-62,99; 7,7</t>
+          <t>-65,88; 7,39</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 7,12</t>
+          <t>-1,35; 6,4</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>4,64; 12,18</t>
+          <t>4,83; 12,22</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 5,61</t>
+          <t>-2,89; 5,09</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>4,0; 10,02</t>
+          <t>3,85; 10,25</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>8,5; 14,38</t>
+          <t>8,9; 15,11</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-45,72; 4,39</t>
+          <t>-45,71; 4,5</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 0,86</t>
+          <t>-4,01; 0,73</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>9,16; 13,3</t>
+          <t>8,83; 13,18</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-25,18; -5,87</t>
+          <t>-24,46; -5,9</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>0,29; 4,84</t>
+          <t>0,33; 4,83</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>9,25; 13,3</t>
+          <t>9,4; 13,2</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-14,12; -7,2</t>
+          <t>-14,34; -6,99</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 2,15</t>
+          <t>-1,1; 2,12</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>9,83; 12,8</t>
+          <t>9,61; 12,85</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-18,0; -7,47</t>
+          <t>-17,94; -7,58</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 1,31</t>
+          <t>-5,83; 1,05</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>13,23; 20,02</t>
+          <t>12,78; 19,81</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-37,14; -8,7</t>
+          <t>-36,54; -8,82</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>0,43; 6,98</t>
+          <t>0,46; 6,94</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>12,77; 19,14</t>
+          <t>13,07; 18,98</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-19,91; -10,29</t>
+          <t>-20,4; -10,11</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 3,13</t>
+          <t>-1,56; 3,1</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>14,05; 18,72</t>
+          <t>13,69; 18,79</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-25,95; -10,86</t>
+          <t>-26,11; -10,98</t>
         </is>
       </c>
     </row>
